--- a/code/config/y-音效配置表.xlsx
+++ b/code/config/y-音效配置表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="21840" windowHeight="12525"/>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,34 +132,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>soundType</t>
+  </si>
+  <si>
+    <t>类型（0是音效，1背景音乐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖规则，相同key可以覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>背景音乐1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>soundType</t>
-  </si>
-  <si>
-    <t>类型（0是音效，1背景音乐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覆盖规则，相同key可以覆盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coverKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主界面音乐1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_1_mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background1_mp3</t>
+    <t>音乐说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button_mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_bgm_mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐文件Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,7 +601,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -629,21 +629,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -669,36 +669,36 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
@@ -706,13 +706,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -756,21 +756,21 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -791,12 +791,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
